--- a/Data/Processed/Angiosperms/missing_powo_ipni/Thymelaeaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Thymelaeaceae.xlsx
@@ -817,7 +817,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Verh. Bot. Vereins Prov. Brandenburg 47: 162. 1905 </t>
+          <t>Verh. Bot. Vereins Prov. Brandenburg 47: 162. 1905</t>
         </is>
       </c>
       <c r="J8" t="b">
